--- a/data_sheet.xlsx
+++ b/data_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sc0cp\OneDrive\Desktop\TESTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BD87D3-5899-4674-822C-DA52D1A8FDE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F662A11-07F9-4D8C-BA7B-2DE6B87E8EA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" xr2:uid="{AB1B888B-D629-4BD2-A83F-C402D443F095}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
-  <si>
-    <t>username</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>password</t>
   </si>
@@ -49,6 +46,60 @@
   </si>
   <si>
     <t>njgj</t>
+  </si>
+  <si>
+    <t>SR#</t>
+  </si>
+  <si>
+    <t>Test scenario</t>
+  </si>
+  <si>
+    <t>Test cases</t>
+  </si>
+  <si>
+    <t>test steps</t>
+  </si>
+  <si>
+    <t>userid</t>
+  </si>
+  <si>
+    <t>expected result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">result </t>
+  </si>
+  <si>
+    <t>verify login</t>
+  </si>
+  <si>
+    <t>valid&amp; valid</t>
+  </si>
+  <si>
+    <t>invalid&amp;valid</t>
+  </si>
+  <si>
+    <t>valid&amp; invalid</t>
+  </si>
+  <si>
+    <t>invalid&amp;invalid</t>
+  </si>
+  <si>
+    <t>a pop up user or password is not valid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> a text from a the next page is read</t>
+  </si>
+  <si>
+    <t>ss1</t>
+  </si>
+  <si>
+    <t>ss2</t>
+  </si>
+  <si>
+    <t>ss3</t>
+  </si>
+  <si>
+    <t>ss4</t>
   </si>
 </sst>
 </file>
@@ -102,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -112,6 +163,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,58 +481,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B510E0A-2D34-484C-A596-C95AA2CBD5C7}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" customWidth="1"/>
+    <col min="7" max="7" width="32.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
+      <c r="G3" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="G4" s="4"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="F5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
+      <c r="G5" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G3:G5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data_sheet.xlsx
+++ b/data_sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sc0cp\OneDrive\Desktop\TESTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F662A11-07F9-4D8C-BA7B-2DE6B87E8EA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7BBCCD-A746-47D1-9297-14C36AA69CD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" xr2:uid="{AB1B888B-D629-4BD2-A83F-C402D443F095}"/>
   </bookViews>
@@ -484,7 +484,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
